--- a/AAII_Financials/Quarterly/REE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>REE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,50 +667,66 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="J7" s="2">
+        <v>44012</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -730,74 +746,110 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="E10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,37 +861,53 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>212400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>16700</v>
+      </c>
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,37 +935,61 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +1017,20 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,37 +1039,53 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>432300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43700</v>
+      </c>
+      <c r="H17" s="3">
         <v>12600</v>
       </c>
-      <c r="E17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>68500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>38700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,28 +1093,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-1200</v>
+        <v>-39500</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-432300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-38500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1138,12 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1015,123 +1151,171 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-8500</v>
+        <v>-5900</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>17400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-414800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-38100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-414900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-12600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-38200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1142,17 +1326,29 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,66 +1376,102 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-414900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-12600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-38200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-414900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-12600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-38200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1499,20 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1540,20 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1581,20 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1622,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1363,57 +1643,81 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>8500</v>
+        <v>5900</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-17400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-414900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-12600</v>
       </c>
-      <c r="E33" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-38200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,71 +1745,107 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-414900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-12600</v>
       </c>
-      <c r="E35" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-38200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="J38" s="2">
+        <v>44012</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1857,12 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,22 +1874,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1100</v>
+        <v>239000</v>
       </c>
       <c r="E41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>275800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>294500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>30000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1559,8 +1907,20 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,80 +1948,116 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>5600</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1675,22 +2071,34 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1300</v>
+        <v>252400</v>
       </c>
       <c r="E46" s="3">
-        <v>1500</v>
+        <v>288100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>306400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>32900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1704,16 +2112,28 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>201300</v>
+        <v>5400</v>
       </c>
       <c r="E47" s="3">
-        <v>201300</v>
+        <v>1200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1733,37 +2153,61 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>21100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +2235,20 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +2276,20 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,22 +2317,34 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>300</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1878,8 +2358,20 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,22 +2399,34 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>202600</v>
+        <v>279900</v>
       </c>
       <c r="E54" s="3">
-        <v>202700</v>
+        <v>292900</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>308400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>38300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1936,8 +2440,20 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2465,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,22 +2482,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>5200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>20600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1991,51 +2515,75 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>38000</v>
+        <v>16000</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2049,22 +2597,34 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42600</v>
+        <v>21300</v>
       </c>
       <c r="E60" s="3">
-        <v>38200</v>
+        <v>20600</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>9500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2078,8 +2638,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2107,37 +2679,61 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>21200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2761,20 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2802,20 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,22 +2843,34 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42600</v>
+        <v>42400</v>
       </c>
       <c r="E66" s="3">
-        <v>38200</v>
+        <v>42500</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>26100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>9500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2252,8 +2884,20 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2909,12 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2942,20 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2983,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +3024,20 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,22 +3065,34 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-14300</v>
+        <v>-637500</v>
       </c>
       <c r="E72" s="3">
-        <v>-9700</v>
+        <v>-614500</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-567900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-153000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2410,8 +3106,20 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +3147,20 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +3188,20 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,22 +3229,34 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>159900</v>
+        <v>237500</v>
       </c>
       <c r="E76" s="3">
-        <v>164600</v>
+        <v>250400</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>282200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>28800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2526,8 +3270,20 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,71 +3311,107 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="J80" s="2">
+        <v>44012</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-414900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-12600</v>
       </c>
-      <c r="E81" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-38200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,37 +3423,53 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +3497,20 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +3538,20 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +3579,20 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +3620,20 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,37 +3661,61 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-37100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-18500</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-23300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-4000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,37 +3727,53 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3801,20 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,37 +3842,61 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3908,12 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3941,20 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3982,20 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +4023,20 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,37 +4064,61 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>288400</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>33100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>25800</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,33 +4146,57 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>-36800</v>
       </c>
       <c r="E102" s="3">
-        <v>1500</v>
+        <v>-18600</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>264600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>21500</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>REE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,14 +750,14 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -766,35 +770,38 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,26 +826,26 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F10" s="3">
         <v>-700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,35 +878,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>22400</v>
+        <v>18100</v>
       </c>
       <c r="E12" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F12" s="3">
         <v>23300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>212400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -973,8 +993,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1069,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38200</v>
+        <v>29400</v>
       </c>
       <c r="E17" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F17" s="3">
         <v>39500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>432300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>68500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1111,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,26 +1123,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-39500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-432300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-43700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-68100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,26 +1185,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>17400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1217,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,26 +1229,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-45200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-414800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-43600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-67500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-38100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,34 +1261,37 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1265,35 +1305,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-22400</v>
+        <v>-24600</v>
       </c>
       <c r="E23" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-45400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-414900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-67700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-38200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1315,25 +1361,25 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1437,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23000</v>
+        <v>-25200</v>
       </c>
       <c r="E26" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-46700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-414900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-67700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-38200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1481,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-23000</v>
+        <v>-25200</v>
       </c>
       <c r="E27" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-46700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-414900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-43800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-67700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-38200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,26 +1713,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F32" s="3">
         <v>5900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-17400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1745,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-23000</v>
+        <v>-25200</v>
       </c>
       <c r="E33" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-46700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-414900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-43800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-67700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-38200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1833,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-23000</v>
+        <v>-25200</v>
       </c>
       <c r="E35" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-46700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-414900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-43800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-67700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-38200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1877,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,26 +1964,27 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E41" s="3">
         <v>239000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>275800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>294500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,31 +2006,34 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+        <v>109800</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1960,34 +2050,37 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E43" s="3">
         <v>7800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2001,25 +2094,28 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -2027,8 +2123,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2042,26 +2138,29 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,26 +2182,29 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E46" s="3">
         <v>252400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>288100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>306400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,20 +2226,23 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E47" s="3">
         <v>5400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,34 +2270,37 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E48" s="3">
         <v>21100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2206,8 +2314,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,15 +2460,15 @@
       <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,26 +2534,29 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>251700</v>
+      </c>
+      <c r="E54" s="3">
         <v>279900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>292900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>308400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,26 +2616,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2553,8 +2687,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2568,25 +2702,28 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E59" s="3">
         <v>16000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2609,26 +2746,29 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E60" s="3">
         <v>21300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,25 +2834,28 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E62" s="3">
         <v>21200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14800</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2717,8 +2863,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,26 +3010,29 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E66" s="3">
         <v>42400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,26 +3248,29 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-661200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-637500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-614500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-567900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-153000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,26 +3424,29 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>220600</v>
+      </c>
+      <c r="E76" s="3">
         <v>237500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>250400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>282200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3512,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3561,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-23000</v>
+        <v>-25200</v>
       </c>
       <c r="E81" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-46700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-414900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-43800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-67700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-38200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,35 +3625,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3887,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3951,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3740,26 +3961,26 @@
         <v>-1300</v>
       </c>
       <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,35 +4081,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4319,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>288400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>33100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>25800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,35 +4407,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>264600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
   <si>
     <t>REE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,8 +730,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,14 +757,14 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -773,38 +777,41 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,29 +836,29 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-300</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,38 +892,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E12" s="3">
         <v>18100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>43200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>212400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -996,8 +1016,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,38 +1096,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>29400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>432300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>68500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,8 +1141,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,29 +1153,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-36700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-39500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-432300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-43700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-68100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-38500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,29 +1219,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F20" s="3">
         <v>15900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>17400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,8 +1254,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,29 +1266,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-20000</v>
+        <v>-22800</v>
       </c>
       <c r="F21" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-45200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-414800</v>
       </c>
-      <c r="H21" s="3">
-        <v>-43600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-67500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-38100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,37 +1301,40 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1308,38 +1348,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-414900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-67700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,37 +1395,40 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>600</v>
       </c>
       <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,38 +1489,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-46700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-414900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-43800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-67700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,38 +1536,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-46700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-414900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-43800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-67700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1713,29 +1783,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-15900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-17400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,38 +1818,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-46700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-414900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-43800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-67700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-38200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,38 +1912,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-46700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-414900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-43800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-67700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-38200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,43 +1959,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,29 +2051,30 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E41" s="3">
         <v>97000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>239000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>275800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>294500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,34 +2096,37 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E42" s="3">
         <v>109800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2053,37 +2143,40 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>10400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,17 +2204,17 @@
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>300</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2222,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2141,29 +2237,32 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,29 +2284,32 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>195500</v>
+      </c>
+      <c r="E46" s="3">
         <v>222200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>252400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>288100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>306400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,23 +2331,26 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E47" s="3">
         <v>5200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,37 +2378,40 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E48" s="3">
         <v>23400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2566,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,15 +2583,15 @@
       <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,29 +2660,32 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E54" s="3">
         <v>251700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>279900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>292900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>308400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,29 +2747,30 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2690,8 +2824,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2705,28 +2839,31 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>13200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2749,29 +2886,32 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E60" s="3">
         <v>14200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,28 +2980,31 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E62" s="3">
         <v>16900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14800</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2866,8 +3012,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,29 +3168,32 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E66" s="3">
         <v>31100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>42500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,29 +3422,32 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-694700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-661200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-637500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-614500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-567900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-153000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,29 +3610,32 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>196900</v>
+      </c>
+      <c r="E76" s="3">
         <v>220600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>237500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>250400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>282200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,43 +3704,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,38 +3756,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-46700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-414900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-43800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-67700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-38200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,38 +3824,39 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1100</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,38 +4104,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-31400</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-37100</v>
+        <v>-68500</v>
       </c>
       <c r="F89" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-18500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-13100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,38 +4172,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1300</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-1300</v>
+        <v>-2600</v>
       </c>
       <c r="F91" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,38 +4311,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-111100</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-1300</v>
+        <v>-112400</v>
       </c>
       <c r="F94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
-        <v>800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,38 +4565,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>500</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="F100" s="3">
+        <v>-289700</v>
+      </c>
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>288400</v>
       </c>
-      <c r="H100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>33100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>25800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,38 +4659,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-142000</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-36800</v>
+        <v>-178800</v>
       </c>
       <c r="F102" s="3">
+        <v>-268200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-18600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>264600</v>
       </c>
-      <c r="H102" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>17800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>REE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,62 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,14 +763,14 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -780,41 +783,44 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,41 +833,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-300</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,41 +905,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E12" s="3">
         <v>20900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>43200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>212400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,8 +1038,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1053,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>27800</v>
       </c>
       <c r="E17" s="3">
+        <v>34100</v>
+      </c>
+      <c r="F17" s="3">
         <v>29400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>432300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,32 +1182,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-29400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-39500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-432300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-43700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-68100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-38500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1219,32 +1252,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>4800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>17400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,32 +1302,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-22800</v>
+        <v>-32000</v>
       </c>
       <c r="F21" s="3">
-        <v>-20500</v>
+        <v>-23500</v>
       </c>
       <c r="G21" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="H21" s="3">
         <v>-45200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-414800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="J21" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-67500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-38100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,29 +1354,29 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1351,41 +1390,44 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-414900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-67700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,40 +1440,43 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>600</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
       </c>
       <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1445,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-27300</v>
       </c>
       <c r="E26" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-25200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-46700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-414900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-67700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-27300</v>
       </c>
       <c r="E27" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-25200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-46700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-414900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-67700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1783,32 +1852,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-17400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-27300</v>
       </c>
       <c r="E33" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-25200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-46700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-414900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-67700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-27300</v>
       </c>
       <c r="E35" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-25200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-46700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-414900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-67700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,32 +2137,33 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E41" s="3">
         <v>67600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>239000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>275800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>294500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,37 +2185,40 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E42" s="3">
         <v>117500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>109800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2146,40 +2235,43 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>4600</v>
       </c>
       <c r="E43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F43" s="3">
         <v>10400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2193,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2207,17 +2302,17 @@
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H44" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>300</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2225,8 +2320,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2240,32 +2335,35 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="E45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,32 +2385,35 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>165700</v>
+      </c>
+      <c r="E46" s="3">
         <v>195500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>222200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>252400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>288100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>306400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>32900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,26 +2435,29 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E47" s="3">
         <v>5600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,40 +2485,43 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E48" s="3">
         <v>39700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2428,8 +2535,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,13 +2685,16 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
@@ -2586,15 +2705,15 @@
       <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,32 +2785,35 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E54" s="3">
         <v>241800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>251700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>279900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>292900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>308400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,32 +2877,33 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23300</v>
+        <v>6200</v>
       </c>
       <c r="E57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2827,8 +2960,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2842,31 +2975,34 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900</v>
+        <v>13900</v>
       </c>
       <c r="E59" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F59" s="3">
         <v>13200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2889,32 +3025,35 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E60" s="3">
         <v>25100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,31 +3125,34 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E62" s="3">
         <v>19700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14800</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3160,8 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3030,8 +3175,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,32 +3325,35 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E66" s="3">
         <v>44900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>42400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>42500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,32 +3595,35 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-721900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-694700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-661200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-637500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-614500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-567900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-153000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,32 +3795,35 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E76" s="3">
         <v>196900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>220600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>237500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>250400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>282200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-27300</v>
       </c>
       <c r="E81" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-25200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-46700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-414900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-67700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,41 +4022,42 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>-1100</v>
       </c>
       <c r="E83" s="3">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="G83" s="3">
+        <v>800</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -3872,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,41 +4320,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-27800</v>
       </c>
       <c r="E89" s="3">
-        <v>-68500</v>
+        <v>-16300</v>
       </c>
       <c r="F89" s="3">
-        <v>22000</v>
+        <v>-31400</v>
       </c>
       <c r="G89" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-18500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="J89" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-13100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,41 +4392,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-2000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2600</v>
+        <v>-6500</v>
       </c>
       <c r="F91" s="3">
-        <v>1100</v>
+        <v>-1300</v>
       </c>
       <c r="G91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="L91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4220,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,41 +4540,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>19000</v>
       </c>
       <c r="E94" s="3">
-        <v>-112400</v>
+        <v>-13400</v>
       </c>
       <c r="F94" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="J94" s="3">
+        <v>800</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4361,8 +4590,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,41 +4810,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>288400</v>
+      </c>
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
-        <v>-289700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>288400</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>33100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>25800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4615,8 +4860,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,41 +4910,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-8700</v>
       </c>
       <c r="E102" s="3">
-        <v>-178800</v>
+        <v>-29500</v>
       </c>
       <c r="F102" s="3">
-        <v>-268200</v>
+        <v>-142000</v>
       </c>
       <c r="G102" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="H102" s="3">
         <v>-18600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>264600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="J102" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>17800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>REE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,70 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,13 +738,19 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>900</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -766,17 +774,17 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -786,47 +794,53 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>900</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,47 +850,53 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-300</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +906,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,47 +932,49 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F12" s="3">
         <v>18400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>20900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>18100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>43200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>23300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>212400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>16700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>29600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>20200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +984,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1040,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,11 +1081,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1056,8 +1096,14 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1152,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,47 +1175,49 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F17" s="3">
         <v>27800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>34100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>29400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>36700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>39500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>432300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>43700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>12600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>68500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>38700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,47 +1227,53 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-27500</v>
       </c>
       <c r="E18" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-34100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-29400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-36700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-39500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-432300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-43700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-68100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-38500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1283,14 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,47 +1309,49 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
         <v>1100</v>
       </c>
       <c r="F20" s="3">
+        <v>600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="3">
         <v>4800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>15900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-5900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>17400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,47 +1361,53 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-25700</v>
       </c>
       <c r="E21" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-32000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-23500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-20000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-45200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-414800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-43600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-67500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-38100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1417,14 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,32 +1437,32 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1393,47 +1473,53 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-27200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-33000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-24600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-20900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-45400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-414900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-43700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-12600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-67700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-38200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,46 +1529,52 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1493,8 +1585,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,47 +1641,53 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-27300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-33500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-25200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-46700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-414900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-43800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-67700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-38200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,47 +1697,53 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-33500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-25200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-46700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-414900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-43800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-67700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-38200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1753,14 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1809,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1865,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1921,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,47 +1977,53 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
         <v>-1100</v>
       </c>
       <c r="F32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-4800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-15900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>5900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-17400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,47 +2033,53 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-33500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-25200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-46700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-414900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-43800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-12600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-67700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-38200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2089,14 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,47 +2145,53 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-33500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-25200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-46700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-414900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-43800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-12600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-67700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-38200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,52 +2201,58 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2262,14 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2288,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,38 +2310,40 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F41" s="3">
         <v>56800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>67600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>97000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>239000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>275800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>294500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>30000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,26 +2362,32 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>64300</v>
+      </c>
+      <c r="F42" s="3">
         <v>96900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>117500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>109800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2217,14 +2397,14 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2238,46 +2418,52 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>10400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>7800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>6100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2288,8 +2474,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2305,29 +2497,29 @@
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2338,38 +2530,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>7500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,38 +2586,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>138600</v>
+      </c>
+      <c r="F46" s="3">
         <v>165700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>195500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>222200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>252400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>288100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>306400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>32900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,32 +2642,38 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F47" s="3">
         <v>3300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>5600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>5200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>5400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,46 +2698,52 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F48" s="3">
         <v>43000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>39700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>23400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>21100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2538,8 +2754,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2810,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2866,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,8 +2922,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2697,10 +2937,10 @@
         <v>3000</v>
       </c>
       <c r="E52" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F52" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
@@ -2708,18 +2948,18 @@
       <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>1000</v>
       </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2978,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,38 +3034,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>187700</v>
+      </c>
+      <c r="F54" s="3">
         <v>215000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>241800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>251700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>279900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>292900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>308400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>38300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +3090,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +3116,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,38 +3138,40 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>20600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,8 +3190,14 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2963,11 +3231,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -2978,38 +3246,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>13900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>20900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>16000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,38 +3302,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F60" s="3">
         <v>20000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>25100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>21300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>20600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3358,14 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,46 +3414,52 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F62" s="3">
         <v>19600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>19700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>22000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>14800</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3178,8 +3470,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3526,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3582,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,38 +3638,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F66" s="3">
         <v>39600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>44900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>31100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>42400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>42500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>26100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3694,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3720,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3772,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3828,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3884,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,38 +3940,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-776800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-750600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-721900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-694700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-661200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-637500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-614500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-567900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-153000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3996,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +4052,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +4108,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,38 +4164,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>151500</v>
+      </c>
+      <c r="F76" s="3">
         <v>175400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>196900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>220600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>237500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>250400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>282200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4220,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4276,58 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,47 +4337,53 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-33500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-25200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-46700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-414900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-43800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-12600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-67700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-38200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4393,14 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,47 +4419,49 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>-1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4073,8 +4471,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4527,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4583,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4639,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4695,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,47 +4751,53 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-27800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-16300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-31400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-37100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-18500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-23300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-17400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>-13100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4807,14 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,47 +4833,49 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4443,8 +4885,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4941,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,47 +4997,53 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F94" s="3">
         <v>19000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-13400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-111100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4593,8 +5053,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +5079,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +5131,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +5187,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5243,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,8 +5299,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4822,38 +5314,38 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>288400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>33100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>25800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4863,8 +5355,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,47 +5411,53 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-29500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-142000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-36800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-18600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>264600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-14600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>17800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>21500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5465,12 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
